--- a/artfynd/A 59861-2018.xlsx
+++ b/artfynd/A 59861-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,6 +1309,134 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111923266</v>
+      </c>
+      <c r="B7" t="n">
+        <v>96017</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flytsvalting</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Luronium natans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.) Raf.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Luroniumviken, Hängasjön, Sm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>430782</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6275341</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Kronoberg</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Ljungby</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Hamneda</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Flytsvaltingarna påträffades under vatten (mycket högt vattenstånd) i ett band av 4 x 0.5 m längd.</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Per Ekerholm</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Per Ekerholm</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 59861-2018.xlsx
+++ b/artfynd/A 59861-2018.xlsx
@@ -1314,7 +1314,7 @@
         <v>111923266</v>
       </c>
       <c r="B7" t="n">
-        <v>96017</v>
+        <v>96309</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>

--- a/artfynd/A 59861-2018.xlsx
+++ b/artfynd/A 59861-2018.xlsx
@@ -1314,7 +1314,7 @@
         <v>111923266</v>
       </c>
       <c r="B7" t="n">
-        <v>96309</v>
+        <v>96323</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
